--- a/artfynd/A 63500-2025 artfynd.xlsx
+++ b/artfynd/A 63500-2025 artfynd.xlsx
@@ -811,7 +811,7 @@
         <v>130889018</v>
       </c>
       <c r="B3" t="n">
-        <v>58037</v>
+        <v>58041</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
